--- a/data/pca/factorExposure/factorExposure_2015-07-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02132728502335864</v>
+        <v>0.01150081370347104</v>
       </c>
       <c r="C2">
-        <v>-0.02446604895476134</v>
+        <v>-0.05178923135013079</v>
       </c>
       <c r="D2">
-        <v>-0.1248223293717269</v>
+        <v>0.1427937736354848</v>
       </c>
       <c r="E2">
-        <v>0.002697670168312277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0119479595041182</v>
+      </c>
+      <c r="F2">
+        <v>-0.01277755773116065</v>
+      </c>
+      <c r="G2">
+        <v>0.1187592440590497</v>
+      </c>
+      <c r="H2">
+        <v>0.05681939057021668</v>
+      </c>
+      <c r="I2">
+        <v>0.02865773560005417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.003050517137048779</v>
+        <v>-0.001854583092526365</v>
       </c>
       <c r="C3">
-        <v>-0.01530931586883326</v>
+        <v>-0.01156264754061456</v>
       </c>
       <c r="D3">
-        <v>-0.01397311562153289</v>
+        <v>0.009651376227706709</v>
       </c>
       <c r="E3">
-        <v>-0.006990299986882491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.01839258986486582</v>
+      </c>
+      <c r="F3">
+        <v>0.01003879676407617</v>
+      </c>
+      <c r="G3">
+        <v>0.001694798595145893</v>
+      </c>
+      <c r="H3">
+        <v>0.005832481776615686</v>
+      </c>
+      <c r="I3">
+        <v>-0.02848797210839607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04889372431333425</v>
+        <v>0.02139360462675789</v>
       </c>
       <c r="C4">
-        <v>-0.06971175667595213</v>
+        <v>-0.1008652386186639</v>
       </c>
       <c r="D4">
-        <v>-0.1317011030430544</v>
+        <v>0.1398446514322644</v>
       </c>
       <c r="E4">
-        <v>-0.07047893782442738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01304725355607203</v>
+      </c>
+      <c r="F4">
+        <v>-0.08674382094545655</v>
+      </c>
+      <c r="G4">
+        <v>0.01132417310030001</v>
+      </c>
+      <c r="H4">
+        <v>0.04235801995363284</v>
+      </c>
+      <c r="I4">
+        <v>0.03408742536339021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02686743878621532</v>
+        <v>0.02887890898897357</v>
       </c>
       <c r="C6">
-        <v>-0.01055600376861435</v>
+        <v>-0.02930120284269139</v>
       </c>
       <c r="D6">
-        <v>-0.144820393121485</v>
+        <v>0.1282873621042326</v>
       </c>
       <c r="E6">
-        <v>-0.03055840345094004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.04820029958878066</v>
+      </c>
+      <c r="F6">
+        <v>-0.053199105323438</v>
+      </c>
+      <c r="G6">
+        <v>0.01612444966297088</v>
+      </c>
+      <c r="H6">
+        <v>0.06370525001328786</v>
+      </c>
+      <c r="I6">
+        <v>-0.02075000017532991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.009534634724255735</v>
+        <v>0.009634795030956812</v>
       </c>
       <c r="C7">
-        <v>-0.02362849614747005</v>
+        <v>-0.03398817478132694</v>
       </c>
       <c r="D7">
-        <v>-0.1154844119333774</v>
+        <v>0.1019173474432373</v>
       </c>
       <c r="E7">
-        <v>0.005506919757447112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05068206126464754</v>
+      </c>
+      <c r="F7">
+        <v>-0.006316710906336636</v>
+      </c>
+      <c r="G7">
+        <v>-0.00387806786842177</v>
+      </c>
+      <c r="H7">
+        <v>0.07281183031866245</v>
+      </c>
+      <c r="I7">
+        <v>-0.02079010548759204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.001120288509368545</v>
+        <v>-0.009703956750771034</v>
       </c>
       <c r="C8">
-        <v>-0.02826687541880993</v>
+        <v>-0.03368111970043344</v>
       </c>
       <c r="D8">
-        <v>-0.08494085523774703</v>
+        <v>0.0826649577829127</v>
       </c>
       <c r="E8">
-        <v>-0.01830026843512758</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02088919005674881</v>
+      </c>
+      <c r="F8">
+        <v>-0.04217878137435186</v>
+      </c>
+      <c r="G8">
+        <v>0.06999310317235882</v>
+      </c>
+      <c r="H8">
+        <v>0.00451401506215104</v>
+      </c>
+      <c r="I8">
+        <v>-0.04206996324429742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.04185204695443189</v>
+        <v>0.01577857476139947</v>
       </c>
       <c r="C9">
-        <v>-0.06041119716139273</v>
+        <v>-0.0846389608114895</v>
       </c>
       <c r="D9">
-        <v>-0.1326988489079888</v>
+        <v>0.1212431220125038</v>
       </c>
       <c r="E9">
-        <v>-0.05518301926660757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.003440846627465308</v>
+      </c>
+      <c r="F9">
+        <v>-0.05725185635562305</v>
+      </c>
+      <c r="G9">
+        <v>-0.008405812703417045</v>
+      </c>
+      <c r="H9">
+        <v>0.05851427233272943</v>
+      </c>
+      <c r="I9">
+        <v>0.004144936808995135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1470883618709189</v>
+        <v>0.230417481799913</v>
       </c>
       <c r="C10">
-        <v>0.1858441757152499</v>
+        <v>0.1044374519575907</v>
       </c>
       <c r="D10">
-        <v>-0.01505073422629347</v>
+        <v>-0.003473996865458709</v>
       </c>
       <c r="E10">
-        <v>-0.04606759227261307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02492622400867718</v>
+      </c>
+      <c r="F10">
+        <v>-0.03767754275994352</v>
+      </c>
+      <c r="G10">
+        <v>-0.0007266786919795257</v>
+      </c>
+      <c r="H10">
+        <v>-0.06254871624791832</v>
+      </c>
+      <c r="I10">
+        <v>-0.1188768827832065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02469872611498398</v>
+        <v>0.01027519683192981</v>
       </c>
       <c r="C11">
-        <v>-0.03942429353602777</v>
+        <v>-0.0525077496175949</v>
       </c>
       <c r="D11">
-        <v>-0.05129776123509855</v>
+        <v>0.0442573547481679</v>
       </c>
       <c r="E11">
-        <v>0.01758535006269603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01933101058076035</v>
+      </c>
+      <c r="F11">
+        <v>0.01165776296742051</v>
+      </c>
+      <c r="G11">
+        <v>-0.003488893024807538</v>
+      </c>
+      <c r="H11">
+        <v>0.04839172603284591</v>
+      </c>
+      <c r="I11">
+        <v>0.03597300009328735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02710936247904586</v>
+        <v>0.01139027591813037</v>
       </c>
       <c r="C12">
-        <v>-0.04024147004462542</v>
+        <v>-0.05013713600834494</v>
       </c>
       <c r="D12">
-        <v>-0.06642858217250305</v>
+        <v>0.04949090959748632</v>
       </c>
       <c r="E12">
-        <v>0.008911863624348332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0178169052210569</v>
+      </c>
+      <c r="F12">
+        <v>0.01674349794088978</v>
+      </c>
+      <c r="G12">
+        <v>-0.02257786632913713</v>
+      </c>
+      <c r="H12">
+        <v>0.07252150861936289</v>
+      </c>
+      <c r="I12">
+        <v>0.02247258985147648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.007733837914511875</v>
+        <v>8.625885303886952e-05</v>
       </c>
       <c r="C13">
-        <v>-0.02722819126488094</v>
+        <v>-0.04459179727793128</v>
       </c>
       <c r="D13">
-        <v>-0.1562906995711619</v>
+        <v>0.1534073915064786</v>
       </c>
       <c r="E13">
-        <v>-0.0240375097633519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.04045971417878041</v>
+      </c>
+      <c r="F13">
+        <v>-0.03400082044673031</v>
+      </c>
+      <c r="G13">
+        <v>0.03419729216933715</v>
+      </c>
+      <c r="H13">
+        <v>0.07521133245643344</v>
+      </c>
+      <c r="I13">
+        <v>-0.09555128867298684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.0004664444568322099</v>
+        <v>-0.0004819878474837593</v>
       </c>
       <c r="C14">
-        <v>-0.02175862756666083</v>
+        <v>-0.02869691595414745</v>
       </c>
       <c r="D14">
-        <v>-0.1089538523927533</v>
+        <v>0.1043043462228979</v>
       </c>
       <c r="E14">
-        <v>-0.004936224655826271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.03344734712203568</v>
+      </c>
+      <c r="F14">
+        <v>-0.02273576567249894</v>
+      </c>
+      <c r="G14">
+        <v>0.01384545419450958</v>
+      </c>
+      <c r="H14">
+        <v>0.1211826629548009</v>
+      </c>
+      <c r="I14">
+        <v>-0.01651023978013707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.00110566159309667</v>
+        <v>-0.0005864836708513604</v>
       </c>
       <c r="C15">
-        <v>-0.01140776793487007</v>
+        <v>-0.01903089320592144</v>
       </c>
       <c r="D15">
-        <v>-0.02666742792987913</v>
+        <v>0.05295019898429114</v>
       </c>
       <c r="E15">
-        <v>0.005801904153779497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.006654373145851259</v>
+      </c>
+      <c r="F15">
+        <v>-0.002677383886073028</v>
+      </c>
+      <c r="G15">
+        <v>0.02136686900980003</v>
+      </c>
+      <c r="H15">
+        <v>0.01864182688726958</v>
+      </c>
+      <c r="I15">
+        <v>0.01839601820653664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02470236999785947</v>
+        <v>0.01058758856640964</v>
       </c>
       <c r="C16">
-        <v>-0.03777382101014536</v>
+        <v>-0.04834942021758284</v>
       </c>
       <c r="D16">
-        <v>-0.05824400632510401</v>
+        <v>0.04560254270924732</v>
       </c>
       <c r="E16">
-        <v>0.0114095890549621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02098720850667934</v>
+      </c>
+      <c r="F16">
+        <v>0.008531931807697891</v>
+      </c>
+      <c r="G16">
+        <v>-0.01498882088023871</v>
+      </c>
+      <c r="H16">
+        <v>0.0535547249421505</v>
+      </c>
+      <c r="I16">
+        <v>0.03385349067780388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.008855862503818843</v>
+        <v>0.0007459323751292662</v>
       </c>
       <c r="C19">
-        <v>-0.02456226198960597</v>
+        <v>-0.02290083039207608</v>
       </c>
       <c r="D19">
-        <v>-0.122517521335984</v>
+        <v>0.07675281994078316</v>
       </c>
       <c r="E19">
-        <v>-0.04381809658080731</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.02166655206089882</v>
+      </c>
+      <c r="F19">
+        <v>-0.009799142755899536</v>
+      </c>
+      <c r="G19">
+        <v>0.02282822404497061</v>
+      </c>
+      <c r="H19">
+        <v>0.07365431701803647</v>
+      </c>
+      <c r="I19">
+        <v>-0.04769394923525959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.007042219312643145</v>
+        <v>0.004914342661853106</v>
       </c>
       <c r="C20">
-        <v>-0.02727186943636619</v>
+        <v>-0.03892210612720213</v>
       </c>
       <c r="D20">
-        <v>-0.09406813865628283</v>
+        <v>0.09773647912494389</v>
       </c>
       <c r="E20">
-        <v>-0.03028230835619421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.008898872789118</v>
+      </c>
+      <c r="F20">
+        <v>-0.02659496403547688</v>
+      </c>
+      <c r="G20">
+        <v>0.002328489145575735</v>
+      </c>
+      <c r="H20">
+        <v>0.05674116507462567</v>
+      </c>
+      <c r="I20">
+        <v>-0.001562121436629206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01071737807392173</v>
+        <v>0.004879874132155955</v>
       </c>
       <c r="C21">
-        <v>-0.0333677810763967</v>
+        <v>-0.04221098718723459</v>
       </c>
       <c r="D21">
-        <v>-0.1726876294188877</v>
+        <v>0.1360864047407225</v>
       </c>
       <c r="E21">
-        <v>-0.06226122132831113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0001194916266685654</v>
+      </c>
+      <c r="F21">
+        <v>-0.07184706862230605</v>
+      </c>
+      <c r="G21">
+        <v>0.02330024141160751</v>
+      </c>
+      <c r="H21">
+        <v>0.1756107152056629</v>
+      </c>
+      <c r="I21">
+        <v>-0.1159680079781469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.004208593001001575</v>
+        <v>-0.01019164430323154</v>
       </c>
       <c r="C22">
-        <v>-0.06183146304481698</v>
+        <v>-0.07970993928232567</v>
       </c>
       <c r="D22">
-        <v>-0.2112230425854562</v>
+        <v>0.2575685644810435</v>
       </c>
       <c r="E22">
-        <v>0.04667721314221619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.05397883956880676</v>
+      </c>
+      <c r="F22">
+        <v>-0.02810045739903976</v>
+      </c>
+      <c r="G22">
+        <v>0.3251976442850816</v>
+      </c>
+      <c r="H22">
+        <v>-0.4110980126796367</v>
+      </c>
+      <c r="I22">
+        <v>0.12976224636058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.004489687928020372</v>
+        <v>-0.009687916072609401</v>
       </c>
       <c r="C23">
-        <v>-0.06228796029128974</v>
+        <v>-0.08064706318844643</v>
       </c>
       <c r="D23">
-        <v>-0.2107788867210883</v>
+        <v>0.2581824318669442</v>
       </c>
       <c r="E23">
-        <v>0.04651827700392096</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05089816356684634</v>
+      </c>
+      <c r="F23">
+        <v>-0.0274589482822781</v>
+      </c>
+      <c r="G23">
+        <v>0.3239774126482128</v>
+      </c>
+      <c r="H23">
+        <v>-0.4116079518878907</v>
+      </c>
+      <c r="I23">
+        <v>0.1315692860818804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03227473371181628</v>
+        <v>0.01047619261258185</v>
       </c>
       <c r="C24">
-        <v>-0.05501653743603464</v>
+        <v>-0.06545142018678593</v>
       </c>
       <c r="D24">
-        <v>-0.07140455621056235</v>
+        <v>0.05410297857649505</v>
       </c>
       <c r="E24">
-        <v>0.008450090219297183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02508714879578766</v>
+      </c>
+      <c r="F24">
+        <v>0.006605223809973262</v>
+      </c>
+      <c r="G24">
+        <v>-0.007470163213244848</v>
+      </c>
+      <c r="H24">
+        <v>0.07746613740871222</v>
+      </c>
+      <c r="I24">
+        <v>0.03335490421763089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03380883946701094</v>
+        <v>0.01349952625370537</v>
       </c>
       <c r="C25">
-        <v>-0.04640085182371137</v>
+        <v>-0.06076286245577203</v>
       </c>
       <c r="D25">
-        <v>-0.06417415548667713</v>
+        <v>0.05127109041410537</v>
       </c>
       <c r="E25">
-        <v>0.002393330376052209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01072466486367144</v>
+      </c>
+      <c r="F25">
+        <v>0.007655938510693888</v>
+      </c>
+      <c r="G25">
+        <v>-0.01329570685539696</v>
+      </c>
+      <c r="H25">
+        <v>0.04612698790518039</v>
+      </c>
+      <c r="I25">
+        <v>0.02156368894965762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01040455412460141</v>
+        <v>0.006228634882791387</v>
       </c>
       <c r="C26">
-        <v>-0.01641806706966617</v>
+        <v>-0.0265540346381925</v>
       </c>
       <c r="D26">
-        <v>-0.08335300542792523</v>
+        <v>0.0702451641158448</v>
       </c>
       <c r="E26">
-        <v>-0.01384012741274128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02522010093632991</v>
+      </c>
+      <c r="F26">
+        <v>-0.02259851233982089</v>
+      </c>
+      <c r="G26">
+        <v>-0.001743531698867604</v>
+      </c>
+      <c r="H26">
+        <v>0.08666258747731254</v>
+      </c>
+      <c r="I26">
+        <v>-0.05101383809709781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.227108020133355</v>
+        <v>0.3187863142362155</v>
       </c>
       <c r="C28">
-        <v>0.2346145627397465</v>
+        <v>0.1114736680387788</v>
       </c>
       <c r="D28">
-        <v>-0.02338656205228112</v>
+        <v>-0.008799324900179475</v>
       </c>
       <c r="E28">
-        <v>-0.06880682653552977</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05036558952116669</v>
+      </c>
+      <c r="F28">
+        <v>-0.03746380526362471</v>
+      </c>
+      <c r="G28">
+        <v>0.02277822771202648</v>
+      </c>
+      <c r="H28">
+        <v>-0.01963613679650674</v>
+      </c>
+      <c r="I28">
+        <v>-0.1407217510527074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.003240840472191929</v>
+        <v>-0.001384026803565547</v>
       </c>
       <c r="C29">
-        <v>-0.02314616449471906</v>
+        <v>-0.03043927564591485</v>
       </c>
       <c r="D29">
-        <v>-0.1025760991664602</v>
+        <v>0.09753529598318067</v>
       </c>
       <c r="E29">
-        <v>-0.007343615928162394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.04415253909960117</v>
+      </c>
+      <c r="F29">
+        <v>-0.02893723075434768</v>
+      </c>
+      <c r="G29">
+        <v>0.0002781414835010486</v>
+      </c>
+      <c r="H29">
+        <v>0.1233818581201081</v>
+      </c>
+      <c r="I29">
+        <v>-0.01915787988804455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.03112473031064354</v>
+        <v>0.01828750138188385</v>
       </c>
       <c r="C30">
-        <v>-0.05892319523701723</v>
+        <v>-0.08404672737555591</v>
       </c>
       <c r="D30">
-        <v>-0.1697002714190839</v>
+        <v>0.1640157802435977</v>
       </c>
       <c r="E30">
-        <v>-0.01528640082779088</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04212094314575072</v>
+      </c>
+      <c r="F30">
+        <v>-0.03594664253789372</v>
+      </c>
+      <c r="G30">
+        <v>0.0364058262418484</v>
+      </c>
+      <c r="H30">
+        <v>0.05225438897400496</v>
+      </c>
+      <c r="I30">
+        <v>0.06467774003110717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.05170699255202264</v>
+        <v>0.01139713960278065</v>
       </c>
       <c r="C31">
-        <v>-0.08249419198627939</v>
+        <v>-0.09296541747609038</v>
       </c>
       <c r="D31">
-        <v>-0.07200019093782768</v>
+        <v>0.04132045930256584</v>
       </c>
       <c r="E31">
-        <v>-0.009136434321809061</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008286708838854318</v>
+      </c>
+      <c r="F31">
+        <v>-0.0117902492763538</v>
+      </c>
+      <c r="G31">
+        <v>0.008015120092438795</v>
+      </c>
+      <c r="H31">
+        <v>0.04737652185698287</v>
+      </c>
+      <c r="I31">
+        <v>-0.07273921254792066</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02250478684405078</v>
+        <v>0.007922562245888097</v>
       </c>
       <c r="C32">
-        <v>-0.03545491049450606</v>
+        <v>-0.04556372815313726</v>
       </c>
       <c r="D32">
-        <v>-0.107545363807505</v>
+        <v>0.1120346339094748</v>
       </c>
       <c r="E32">
-        <v>-0.06042147988750338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.003255124704487141</v>
+      </c>
+      <c r="F32">
+        <v>-0.04513567477245872</v>
+      </c>
+      <c r="G32">
+        <v>0.02727360595052908</v>
+      </c>
+      <c r="H32">
+        <v>0.03820069253768126</v>
+      </c>
+      <c r="I32">
+        <v>-0.08237734306116849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01909515301271131</v>
+        <v>0.007494111600017363</v>
       </c>
       <c r="C33">
-        <v>-0.04252716702765101</v>
+        <v>-0.05729087392935213</v>
       </c>
       <c r="D33">
-        <v>-0.1531529947032731</v>
+        <v>0.1291630733190854</v>
       </c>
       <c r="E33">
-        <v>-0.03554070249770502</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01590540505350573</v>
+      </c>
+      <c r="F33">
+        <v>-0.02712399472473056</v>
+      </c>
+      <c r="G33">
+        <v>0.01251859983421836</v>
+      </c>
+      <c r="H33">
+        <v>0.07186531316492645</v>
+      </c>
+      <c r="I33">
+        <v>-0.01971925261006298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02914568837743526</v>
+        <v>0.007151395236890247</v>
       </c>
       <c r="C34">
-        <v>-0.05689376602320495</v>
+        <v>-0.06201137288717356</v>
       </c>
       <c r="D34">
-        <v>-0.05039528149828748</v>
+        <v>0.03187315686684639</v>
       </c>
       <c r="E34">
-        <v>0.04858712263557678</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02778416983037464</v>
+      </c>
+      <c r="F34">
+        <v>0.03594551585801793</v>
+      </c>
+      <c r="G34">
+        <v>-0.006672058185960315</v>
+      </c>
+      <c r="H34">
+        <v>0.06070260960803785</v>
+      </c>
+      <c r="I34">
+        <v>0.01138929925416848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0003304864845928443</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.004739984183855127</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01584379478824923</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.004575933626444123</v>
+      </c>
+      <c r="F35">
+        <v>-0.001615040286647186</v>
+      </c>
+      <c r="G35">
+        <v>-0.003236475414568731</v>
+      </c>
+      <c r="H35">
+        <v>0.0136165928773275</v>
+      </c>
+      <c r="I35">
+        <v>0.005726282158510555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01000132327952496</v>
+        <v>0.007333086713971148</v>
       </c>
       <c r="C36">
-        <v>-0.007224822240539156</v>
+        <v>-0.02050450582053787</v>
       </c>
       <c r="D36">
-        <v>-0.09523854192004778</v>
+        <v>0.07873609124517833</v>
       </c>
       <c r="E36">
-        <v>-0.03816991734091586</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.008011132929629674</v>
+      </c>
+      <c r="F36">
+        <v>-0.03577350621634949</v>
+      </c>
+      <c r="G36">
+        <v>0.003579615618278561</v>
+      </c>
+      <c r="H36">
+        <v>0.06268451285029712</v>
+      </c>
+      <c r="I36">
+        <v>-0.03576604089052394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.008046214292914595</v>
+        <v>0.01440369801236951</v>
       </c>
       <c r="C38">
-        <v>-0.007764849708657381</v>
+        <v>-0.01575492639738719</v>
       </c>
       <c r="D38">
-        <v>-0.09080301851688805</v>
+        <v>0.08528587158069985</v>
       </c>
       <c r="E38">
-        <v>-0.009437576776900847</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.008727763462883932</v>
+      </c>
+      <c r="F38">
+        <v>0.007511722431589258</v>
+      </c>
+      <c r="G38">
+        <v>0.02439644426149034</v>
+      </c>
+      <c r="H38">
+        <v>0.05459541594903183</v>
+      </c>
+      <c r="I38">
+        <v>-0.03792858108795749</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02597624434530633</v>
+        <v>0.007180202685088441</v>
       </c>
       <c r="C39">
-        <v>-0.05626910834213183</v>
+        <v>-0.07522605218356695</v>
       </c>
       <c r="D39">
-        <v>-0.1180637316205367</v>
+        <v>0.1062012825255256</v>
       </c>
       <c r="E39">
-        <v>0.02386869412045113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.04931925714625789</v>
+      </c>
+      <c r="F39">
+        <v>0.005855405763510104</v>
+      </c>
+      <c r="G39">
+        <v>-0.008400010701078245</v>
+      </c>
+      <c r="H39">
+        <v>0.1028066151043205</v>
+      </c>
+      <c r="I39">
+        <v>0.06597596113183252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01338814294469455</v>
+        <v>0.01155426389072517</v>
       </c>
       <c r="C40">
-        <v>-0.01808307593779609</v>
+        <v>-0.02654173451292001</v>
       </c>
       <c r="D40">
-        <v>-0.1184987537235632</v>
+        <v>0.09761113736999372</v>
       </c>
       <c r="E40">
-        <v>0.02738273584461479</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.0452202360991466</v>
+      </c>
+      <c r="F40">
+        <v>0.02645722131396947</v>
+      </c>
+      <c r="G40">
+        <v>0.067482379451046</v>
+      </c>
+      <c r="H40">
+        <v>0.07048962104395688</v>
+      </c>
+      <c r="I40">
+        <v>-0.06301020392379324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01358335355719719</v>
+        <v>0.01182821438305636</v>
       </c>
       <c r="C41">
-        <v>-0.009057306972336265</v>
+        <v>-0.01751839221027741</v>
       </c>
       <c r="D41">
-        <v>-0.06297571464508295</v>
+        <v>0.04354559050441139</v>
       </c>
       <c r="E41">
-        <v>-0.03288782745038033</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.02176215179466991</v>
+      </c>
+      <c r="F41">
+        <v>-0.01720040092627904</v>
+      </c>
+      <c r="G41">
+        <v>0.01756284568470269</v>
+      </c>
+      <c r="H41">
+        <v>0.04666539261896471</v>
+      </c>
+      <c r="I41">
+        <v>-0.04931692227081576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.009198163458980602</v>
+        <v>0.006219610094059376</v>
       </c>
       <c r="C43">
-        <v>-0.01329926681162</v>
+        <v>-0.01897897327817591</v>
       </c>
       <c r="D43">
-        <v>-0.07644843601535359</v>
+        <v>0.05435821630978877</v>
       </c>
       <c r="E43">
-        <v>-0.02196039002797718</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.005917814307419391</v>
+      </c>
+      <c r="F43">
+        <v>-0.01436105860389656</v>
+      </c>
+      <c r="G43">
+        <v>0.02044988780147507</v>
+      </c>
+      <c r="H43">
+        <v>0.07165307850210031</v>
+      </c>
+      <c r="I43">
+        <v>-0.03781970187279526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01954664323113104</v>
+        <v>0.01197539486123778</v>
       </c>
       <c r="C44">
-        <v>-0.02645675125179184</v>
+        <v>-0.04581433510791635</v>
       </c>
       <c r="D44">
-        <v>-0.1167645888480699</v>
+        <v>0.1190517455542273</v>
       </c>
       <c r="E44">
-        <v>-0.03869173101676301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.02401946319488771</v>
+      </c>
+      <c r="F44">
+        <v>-0.02652631931061332</v>
+      </c>
+      <c r="G44">
+        <v>0.01978340345770894</v>
+      </c>
+      <c r="H44">
+        <v>0.04359061064576589</v>
+      </c>
+      <c r="I44">
+        <v>0.0543404066715192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.01211853382132312</v>
+        <v>-0.0009424840508267359</v>
       </c>
       <c r="C46">
-        <v>-0.02967645312603827</v>
+        <v>-0.04074480617025247</v>
       </c>
       <c r="D46">
-        <v>-0.1011826694743353</v>
+        <v>0.08442033885413674</v>
       </c>
       <c r="E46">
-        <v>-0.01677087889063357</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02587918541736949</v>
+      </c>
+      <c r="F46">
+        <v>-0.02716562895173643</v>
+      </c>
+      <c r="G46">
+        <v>0.01893993420510059</v>
+      </c>
+      <c r="H46">
+        <v>0.1369816629042531</v>
+      </c>
+      <c r="I46">
+        <v>-0.02502788058669184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09373672765504791</v>
+        <v>0.03747102354395444</v>
       </c>
       <c r="C47">
-        <v>-0.0977859272788494</v>
+        <v>-0.1233861627498478</v>
       </c>
       <c r="D47">
-        <v>-0.05960054209801063</v>
+        <v>0.02368420597583902</v>
       </c>
       <c r="E47">
-        <v>-0.0261248236901242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01934870734269438</v>
+      </c>
+      <c r="F47">
+        <v>0.01340829339642922</v>
+      </c>
+      <c r="G47">
+        <v>-0.04442399316808667</v>
+      </c>
+      <c r="H47">
+        <v>0.04086725797051134</v>
+      </c>
+      <c r="I47">
+        <v>-0.137208615025187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.007588894913578676</v>
+        <v>0.004888119284445158</v>
       </c>
       <c r="C48">
-        <v>-0.01731465308703371</v>
+        <v>-0.02901223707155522</v>
       </c>
       <c r="D48">
-        <v>-0.09768014038065791</v>
+        <v>0.08290245469574614</v>
       </c>
       <c r="E48">
-        <v>-0.05127494528063844</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003310953336130844</v>
+      </c>
+      <c r="F48">
+        <v>-0.03966699771111042</v>
+      </c>
+      <c r="G48">
+        <v>0.01003728912581999</v>
+      </c>
+      <c r="H48">
+        <v>0.0923184844592648</v>
+      </c>
+      <c r="I48">
+        <v>-0.02558359169579538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04704571691574445</v>
+        <v>0.01384843578972425</v>
       </c>
       <c r="C50">
-        <v>-0.06015306687014881</v>
+        <v>-0.07558358835219835</v>
       </c>
       <c r="D50">
-        <v>-0.07149467964720969</v>
+        <v>0.04685611675757323</v>
       </c>
       <c r="E50">
-        <v>-0.007108831403044422</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.0003897272136515247</v>
+      </c>
+      <c r="F50">
+        <v>-0.007504572437186664</v>
+      </c>
+      <c r="G50">
+        <v>0.02923028832481736</v>
+      </c>
+      <c r="H50">
+        <v>0.03671910913624689</v>
+      </c>
+      <c r="I50">
+        <v>-0.1282137015428838</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.00440862856248981</v>
+        <v>0.002713515265940931</v>
       </c>
       <c r="C51">
-        <v>-0.003847264250745286</v>
+        <v>-0.01656789656285038</v>
       </c>
       <c r="D51">
-        <v>-0.06049790553701481</v>
+        <v>0.06720174830996008</v>
       </c>
       <c r="E51">
-        <v>-0.001222690588537828</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03633617858247895</v>
+      </c>
+      <c r="F51">
+        <v>-0.03742898550908693</v>
+      </c>
+      <c r="G51">
+        <v>0.04027024226893258</v>
+      </c>
+      <c r="H51">
+        <v>0.04610839347306439</v>
+      </c>
+      <c r="I51">
+        <v>-0.01184961317357741</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1204870358950063</v>
+        <v>0.06068123911927211</v>
       </c>
       <c r="C53">
-        <v>-0.1113989420042659</v>
+        <v>-0.1563220731650902</v>
       </c>
       <c r="D53">
-        <v>-0.01937673451233425</v>
+        <v>-0.01408422487588593</v>
       </c>
       <c r="E53">
-        <v>-0.05642144138221034</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03513526905665239</v>
+      </c>
+      <c r="F53">
+        <v>-0.04748742127688905</v>
+      </c>
+      <c r="G53">
+        <v>0.01063108883621453</v>
+      </c>
+      <c r="H53">
+        <v>0.001976477226220285</v>
+      </c>
+      <c r="I53">
+        <v>-0.08544781960631873</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02060185367724963</v>
+        <v>0.01134982377723063</v>
       </c>
       <c r="C54">
-        <v>-0.02290035405110687</v>
+        <v>-0.04081243499704532</v>
       </c>
       <c r="D54">
-        <v>-0.1075836686500978</v>
+        <v>0.08357704082253657</v>
       </c>
       <c r="E54">
-        <v>-0.0002980747180703301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01019829652573761</v>
+      </c>
+      <c r="F54">
+        <v>0.002526561658742903</v>
+      </c>
+      <c r="G54">
+        <v>0.03027033796105964</v>
+      </c>
+      <c r="H54">
+        <v>0.09425936770402833</v>
+      </c>
+      <c r="I54">
+        <v>-0.05132791311755417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1062551635933876</v>
+        <v>0.04844595378676968</v>
       </c>
       <c r="C55">
-        <v>-0.09343886782050535</v>
+        <v>-0.1274846408931544</v>
       </c>
       <c r="D55">
-        <v>-0.006512820131898266</v>
+        <v>-0.02726026613648648</v>
       </c>
       <c r="E55">
-        <v>-0.01389628438110914</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.001078196975608939</v>
+      </c>
+      <c r="F55">
+        <v>-0.01513155119715654</v>
+      </c>
+      <c r="G55">
+        <v>0.01943458752999658</v>
+      </c>
+      <c r="H55">
+        <v>0.009821026905780187</v>
+      </c>
+      <c r="I55">
+        <v>-0.08866525199921854</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1484375833115788</v>
+        <v>0.06669767221560421</v>
       </c>
       <c r="C56">
-        <v>-0.1229806898037193</v>
+        <v>-0.1852404513685017</v>
       </c>
       <c r="D56">
-        <v>-0.005301589038883931</v>
+        <v>-0.02454123880911782</v>
       </c>
       <c r="E56">
-        <v>-0.01610992110456866</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03406680584604269</v>
+      </c>
+      <c r="F56">
+        <v>-0.01422484897826067</v>
+      </c>
+      <c r="G56">
+        <v>0.06325255063518184</v>
+      </c>
+      <c r="H56">
+        <v>-0.007901668616672569</v>
+      </c>
+      <c r="I56">
+        <v>-0.1096564461258549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.0009865419094513544</v>
+        <v>0.006477715957589465</v>
       </c>
       <c r="C58">
-        <v>-0.01536616505703831</v>
+        <v>-0.04890993446722369</v>
       </c>
       <c r="D58">
-        <v>-0.228429422058787</v>
+        <v>0.2862402843178789</v>
       </c>
       <c r="E58">
-        <v>-0.06985708494327</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.01570999188234491</v>
+      </c>
+      <c r="F58">
+        <v>-0.09213537670714705</v>
+      </c>
+      <c r="G58">
+        <v>0.1185166107913799</v>
+      </c>
+      <c r="H58">
+        <v>-0.107791083584886</v>
+      </c>
+      <c r="I58">
+        <v>0.06019002639254723</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1583383760223515</v>
+        <v>0.2464117127448245</v>
       </c>
       <c r="C59">
-        <v>0.1718468006301389</v>
+        <v>0.07911492547572156</v>
       </c>
       <c r="D59">
-        <v>-0.05082405164407737</v>
+        <v>0.05942926359818381</v>
       </c>
       <c r="E59">
-        <v>-0.03730135957937307</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02928875742998337</v>
+      </c>
+      <c r="F59">
+        <v>-0.01501373605895781</v>
+      </c>
+      <c r="G59">
+        <v>-0.002973331426511203</v>
+      </c>
+      <c r="H59">
+        <v>-0.01952400197888752</v>
+      </c>
+      <c r="I59">
+        <v>-0.02856167441392999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2037471918372881</v>
+        <v>0.1541132367096295</v>
       </c>
       <c r="C60">
-        <v>-0.08095698236960865</v>
+        <v>-0.1696248067226433</v>
       </c>
       <c r="D60">
-        <v>-0.1501155704806561</v>
+        <v>0.07670737757677304</v>
       </c>
       <c r="E60">
-        <v>0.1986281428119848</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2276505109584093</v>
+      </c>
+      <c r="F60">
+        <v>0.1619838901066929</v>
+      </c>
+      <c r="G60">
+        <v>-0.2317433637043033</v>
+      </c>
+      <c r="H60">
+        <v>-0.1859707150473058</v>
+      </c>
+      <c r="I60">
+        <v>0.03606884102898136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03626592650877145</v>
+        <v>0.01446502980263281</v>
       </c>
       <c r="C61">
-        <v>-0.0515644126909832</v>
+        <v>-0.07129109807493636</v>
       </c>
       <c r="D61">
-        <v>-0.1085233943627205</v>
+        <v>0.08332313357425435</v>
       </c>
       <c r="E61">
-        <v>0.009434431644478771</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03510643959774051</v>
+      </c>
+      <c r="F61">
+        <v>0.01389000904869161</v>
+      </c>
+      <c r="G61">
+        <v>-0.02218379588762613</v>
+      </c>
+      <c r="H61">
+        <v>0.09739690138529733</v>
+      </c>
+      <c r="I61">
+        <v>0.01866409789357508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01203911318848849</v>
+        <v>0.00253292810661458</v>
       </c>
       <c r="C63">
-        <v>-0.02552087357437443</v>
+        <v>-0.03619529214889823</v>
       </c>
       <c r="D63">
-        <v>-0.09541212492343419</v>
+        <v>0.07141107106835913</v>
       </c>
       <c r="E63">
-        <v>-0.009993834068069285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02854146627210397</v>
+      </c>
+      <c r="F63">
+        <v>-0.02197499139404696</v>
+      </c>
+      <c r="G63">
+        <v>0.01225328193181282</v>
+      </c>
+      <c r="H63">
+        <v>0.06309131608606675</v>
+      </c>
+      <c r="I63">
+        <v>-0.005572981870943709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06832202396020606</v>
+        <v>0.02310744584494665</v>
       </c>
       <c r="C64">
-        <v>-0.07815267529646464</v>
+        <v>-0.1048195687354259</v>
       </c>
       <c r="D64">
-        <v>-0.03829047457346972</v>
+        <v>0.02629534541618365</v>
       </c>
       <c r="E64">
-        <v>-0.01864453772166588</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02768722089031868</v>
+      </c>
+      <c r="F64">
+        <v>-0.02255526346247007</v>
+      </c>
+      <c r="G64">
+        <v>-0.04534245127674744</v>
+      </c>
+      <c r="H64">
+        <v>0.1130059681308287</v>
+      </c>
+      <c r="I64">
+        <v>0.06338702471382089</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.0292005191943925</v>
+        <v>0.02384077060795467</v>
       </c>
       <c r="C65">
-        <v>-0.01467852341267761</v>
+        <v>-0.03923349950487892</v>
       </c>
       <c r="D65">
-        <v>-0.1221833708148277</v>
+        <v>0.1193453828015476</v>
       </c>
       <c r="E65">
-        <v>0.0003385937628962164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04858112568194907</v>
+      </c>
+      <c r="F65">
+        <v>-0.005388475700187466</v>
+      </c>
+      <c r="G65">
+        <v>-0.01625145016214052</v>
+      </c>
+      <c r="H65">
+        <v>0.05267132423564225</v>
+      </c>
+      <c r="I65">
+        <v>-0.004118918368330459</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02896856630587748</v>
+        <v>0.005652839060367987</v>
       </c>
       <c r="C66">
-        <v>-0.06289842318269012</v>
+        <v>-0.09015584271951806</v>
       </c>
       <c r="D66">
-        <v>-0.1210927159023534</v>
+        <v>0.1294128153725941</v>
       </c>
       <c r="E66">
-        <v>0.02753826323908874</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.0364276048198385</v>
+      </c>
+      <c r="F66">
+        <v>0.01467736396737255</v>
+      </c>
+      <c r="G66">
+        <v>0.003730716383016111</v>
+      </c>
+      <c r="H66">
+        <v>0.05581019134760533</v>
+      </c>
+      <c r="I66">
+        <v>0.07196113076052969</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02870834370505255</v>
+        <v>0.02513040351020931</v>
       </c>
       <c r="C67">
-        <v>-0.0174745367261351</v>
+        <v>-0.02812633507363246</v>
       </c>
       <c r="D67">
-        <v>-0.04582871597614957</v>
+        <v>0.0346748015818623</v>
       </c>
       <c r="E67">
-        <v>0.01451787653362023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.005093409278536031</v>
+      </c>
+      <c r="F67">
+        <v>0.02961435043452855</v>
+      </c>
+      <c r="G67">
+        <v>0.01203414291617174</v>
+      </c>
+      <c r="H67">
+        <v>0.0644343513317336</v>
+      </c>
+      <c r="I67">
+        <v>-0.02638610438404913</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.183371731969502</v>
+        <v>0.2659267126357716</v>
       </c>
       <c r="C68">
-        <v>0.1837179565122017</v>
+        <v>0.07786155691791724</v>
       </c>
       <c r="D68">
-        <v>-0.03065140577938967</v>
+        <v>0.03341838033893171</v>
       </c>
       <c r="E68">
-        <v>-0.01229915180109517</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005700888065350417</v>
+      </c>
+      <c r="F68">
+        <v>-0.02932146423306724</v>
+      </c>
+      <c r="G68">
+        <v>0.06262315256819542</v>
+      </c>
+      <c r="H68">
+        <v>-0.04427568436601338</v>
+      </c>
+      <c r="I68">
+        <v>-0.09611696744299177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07340704765577971</v>
+        <v>0.02294533216125645</v>
       </c>
       <c r="C69">
-        <v>-0.110485431570749</v>
+        <v>-0.1209229691528877</v>
       </c>
       <c r="D69">
-        <v>-0.08243617717031976</v>
+        <v>0.03652778745839512</v>
       </c>
       <c r="E69">
-        <v>-0.01009851821683141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.003002760115087245</v>
+      </c>
+      <c r="F69">
+        <v>0.01504075082772512</v>
+      </c>
+      <c r="G69">
+        <v>-0.02995099977993338</v>
+      </c>
+      <c r="H69">
+        <v>0.04296836378257585</v>
+      </c>
+      <c r="I69">
+        <v>-0.09166994689049865</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.188408135366689</v>
+        <v>0.2670285958823821</v>
       </c>
       <c r="C71">
-        <v>0.2020725701525414</v>
+        <v>0.09226902721891407</v>
       </c>
       <c r="D71">
-        <v>-0.02794490573498985</v>
+        <v>0.02064416308249334</v>
       </c>
       <c r="E71">
-        <v>-0.01541926985002232</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.008715017332965234</v>
+      </c>
+      <c r="F71">
+        <v>-0.01615423807771803</v>
+      </c>
+      <c r="G71">
+        <v>0.04110236987041795</v>
+      </c>
+      <c r="H71">
+        <v>0.01347345478292853</v>
+      </c>
+      <c r="I71">
+        <v>-0.1685202537400854</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1168212293898378</v>
+        <v>0.06375753896913598</v>
       </c>
       <c r="C72">
-        <v>-0.06310541265245333</v>
+        <v>-0.1220693995838871</v>
       </c>
       <c r="D72">
-        <v>-0.09923679402083797</v>
+        <v>0.06256500726585434</v>
       </c>
       <c r="E72">
-        <v>0.05510500903362823</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08772571331006683</v>
+      </c>
+      <c r="F72">
+        <v>0.01629601919226969</v>
+      </c>
+      <c r="G72">
+        <v>-0.02126871104750802</v>
+      </c>
+      <c r="H72">
+        <v>0.06312614922963915</v>
+      </c>
+      <c r="I72">
+        <v>0.04258633665920267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1852664255202304</v>
+        <v>0.1423544032930369</v>
       </c>
       <c r="C73">
-        <v>-0.04065798650644538</v>
+        <v>-0.1355140462388879</v>
       </c>
       <c r="D73">
-        <v>-0.2087065135866604</v>
+        <v>0.08319939061223106</v>
       </c>
       <c r="E73">
-        <v>0.3023554259296046</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3822714679656103</v>
+      </c>
+      <c r="F73">
+        <v>0.24602471854082</v>
+      </c>
+      <c r="G73">
+        <v>-0.4429920081399798</v>
+      </c>
+      <c r="H73">
+        <v>-0.1441031097675352</v>
+      </c>
+      <c r="I73">
+        <v>0.07302597628908526</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1192974173030617</v>
+        <v>0.05565981493314769</v>
       </c>
       <c r="C74">
-        <v>-0.1006994931643906</v>
+        <v>-0.1439836170836318</v>
       </c>
       <c r="D74">
-        <v>0.022583651195414</v>
+        <v>-0.04305587537121862</v>
       </c>
       <c r="E74">
-        <v>-0.04242407565900724</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01499306604817495</v>
+      </c>
+      <c r="F74">
+        <v>-0.04435799781774658</v>
+      </c>
+      <c r="G74">
+        <v>0.008985592968429422</v>
+      </c>
+      <c r="H74">
+        <v>-0.01153588528002616</v>
+      </c>
+      <c r="I74">
+        <v>-0.113005309705189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2560194031581843</v>
+        <v>0.1246143935805289</v>
       </c>
       <c r="C75">
-        <v>-0.1706046944513874</v>
+        <v>-0.2668169949371879</v>
       </c>
       <c r="D75">
-        <v>0.1061172153113505</v>
+        <v>-0.1346101308680838</v>
       </c>
       <c r="E75">
-        <v>0.003672667680168737</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08985162351164667</v>
+      </c>
+      <c r="F75">
+        <v>0.03848292142723409</v>
+      </c>
+      <c r="G75">
+        <v>0.1021357460094747</v>
+      </c>
+      <c r="H75">
+        <v>-0.009671027498424536</v>
+      </c>
+      <c r="I75">
+        <v>-0.09098238830101035</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1562436389847667</v>
+        <v>0.07187180217889616</v>
       </c>
       <c r="C76">
-        <v>-0.1235806549744913</v>
+        <v>-0.1829719040194384</v>
       </c>
       <c r="D76">
-        <v>-0.02195004082547673</v>
+        <v>-0.03067792016168155</v>
       </c>
       <c r="E76">
-        <v>-0.01495865890295567</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02815315154126462</v>
+      </c>
+      <c r="F76">
+        <v>-0.004194915265829908</v>
+      </c>
+      <c r="G76">
+        <v>0.0538232550913633</v>
+      </c>
+      <c r="H76">
+        <v>0.03351871379980733</v>
+      </c>
+      <c r="I76">
+        <v>-0.115328772743591</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01947723412001098</v>
+        <v>0.02999921093745621</v>
       </c>
       <c r="C77">
-        <v>-0.08095854242096426</v>
+        <v>-0.09369893277070197</v>
       </c>
       <c r="D77">
-        <v>-0.08293795523360718</v>
+        <v>0.2739417122035018</v>
       </c>
       <c r="E77">
-        <v>-0.2437133463858659</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7601414242339737</v>
+      </c>
+      <c r="F77">
+        <v>0.3193031340002372</v>
+      </c>
+      <c r="G77">
+        <v>-0.310831932214322</v>
+      </c>
+      <c r="H77">
+        <v>-0.2353333345532161</v>
+      </c>
+      <c r="I77">
+        <v>-0.03824496622128766</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03258845162844207</v>
+        <v>0.01633029602912563</v>
       </c>
       <c r="C78">
-        <v>-0.06710195265296397</v>
+        <v>-0.08627103535897251</v>
       </c>
       <c r="D78">
-        <v>-0.1530343705011806</v>
+        <v>0.1381867238206848</v>
       </c>
       <c r="E78">
-        <v>-0.03330145295807641</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04635023974448235</v>
+      </c>
+      <c r="F78">
+        <v>-0.04814594839417315</v>
+      </c>
+      <c r="G78">
+        <v>0.03899568016773822</v>
+      </c>
+      <c r="H78">
+        <v>0.01658977399714518</v>
+      </c>
+      <c r="I78">
+        <v>-0.0586412668813649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1047607660163064</v>
+        <v>0.04010725828294402</v>
       </c>
       <c r="C79">
-        <v>-0.1516480242681991</v>
+        <v>-0.1800283174058543</v>
       </c>
       <c r="D79">
-        <v>0.09804635300453124</v>
+        <v>-0.06989286751668908</v>
       </c>
       <c r="E79">
-        <v>-0.7732697162575873</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1102187368884421</v>
+      </c>
+      <c r="F79">
+        <v>-0.8110729532052486</v>
+      </c>
+      <c r="G79">
+        <v>-0.3940453644725828</v>
+      </c>
+      <c r="H79">
+        <v>-0.2035920687506947</v>
+      </c>
+      <c r="I79">
+        <v>0.1466564038807048</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.0091053798450951</v>
+        <v>0.0001117701096147723</v>
       </c>
       <c r="C80">
-        <v>-0.0473493271880403</v>
+        <v>-0.04723208356678322</v>
       </c>
       <c r="D80">
-        <v>-0.0476976388991353</v>
+        <v>0.04413180342728596</v>
       </c>
       <c r="E80">
-        <v>0.005771696776562232</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02445462306104845</v>
+      </c>
+      <c r="F80">
+        <v>-0.008878311306423491</v>
+      </c>
+      <c r="G80">
+        <v>0.03299780837605887</v>
+      </c>
+      <c r="H80">
+        <v>0.01792651331276853</v>
+      </c>
+      <c r="I80">
+        <v>-0.05520497958587839</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1338830250657336</v>
+        <v>0.05177646176848423</v>
       </c>
       <c r="C81">
-        <v>-0.119555833728043</v>
+        <v>-0.1661421397139818</v>
       </c>
       <c r="D81">
-        <v>0.06033064227149713</v>
+        <v>-0.07589125710570445</v>
       </c>
       <c r="E81">
-        <v>-0.07284566074368731</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.07071348677495626</v>
+      </c>
+      <c r="F81">
+        <v>-0.04438306754935979</v>
+      </c>
+      <c r="G81">
+        <v>0.05098378442302916</v>
+      </c>
+      <c r="H81">
+        <v>0.06076785580252588</v>
+      </c>
+      <c r="I81">
+        <v>-0.1367425847172622</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2832105561421259</v>
+        <v>0.1104938201277895</v>
       </c>
       <c r="C82">
-        <v>-0.2634425415425544</v>
+        <v>-0.3282093449978737</v>
       </c>
       <c r="D82">
-        <v>0.2105433523274169</v>
+        <v>-0.2270423274560638</v>
       </c>
       <c r="E82">
-        <v>0.1098612702139351</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.0493760074106916</v>
+      </c>
+      <c r="F82">
+        <v>0.1290729737390716</v>
+      </c>
+      <c r="G82">
+        <v>0.07746750781515085</v>
+      </c>
+      <c r="H82">
+        <v>0.09265930048261489</v>
+      </c>
+      <c r="I82">
+        <v>-0.04373282930127297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.0003848196890975821</v>
+        <v>-0.009179179542537871</v>
       </c>
       <c r="C83">
-        <v>-0.05486978882841778</v>
+        <v>-0.03566853400182535</v>
       </c>
       <c r="D83">
-        <v>-0.02069662750852026</v>
+        <v>0.04119894247826307</v>
       </c>
       <c r="E83">
-        <v>-0.06037362903541349</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09361789778357066</v>
+      </c>
+      <c r="F83">
+        <v>-0.02824237834511959</v>
+      </c>
+      <c r="G83">
+        <v>0.04458273262105049</v>
+      </c>
+      <c r="H83">
+        <v>0.02638847744075866</v>
+      </c>
+      <c r="I83">
+        <v>-0.1055362760539915</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0001133548103367786</v>
+        <v>-0.002176467722072119</v>
       </c>
       <c r="C84">
-        <v>-9.291076748390938e-05</v>
+        <v>-0.01606876800294978</v>
       </c>
       <c r="D84">
-        <v>-0.0008364324379988389</v>
+        <v>0.04021268267102929</v>
       </c>
       <c r="E84">
-        <v>-0.0005262156566112207</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.007833586923098884</v>
+      </c>
+      <c r="F84">
+        <v>-0.01504606968966383</v>
+      </c>
+      <c r="G84">
+        <v>0.04586207414438102</v>
+      </c>
+      <c r="H84">
+        <v>-0.005622888703899287</v>
+      </c>
+      <c r="I84">
+        <v>0.03179975237461351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1576001753374781</v>
+        <v>0.06720267935497361</v>
       </c>
       <c r="C85">
-        <v>-0.1256202418477359</v>
+        <v>-0.1852916269327821</v>
       </c>
       <c r="D85">
-        <v>0.03772678098311052</v>
+        <v>-0.08766599111270036</v>
       </c>
       <c r="E85">
-        <v>-0.02385413717085644</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.001560660994130576</v>
+      </c>
+      <c r="F85">
+        <v>-0.07614270614098632</v>
+      </c>
+      <c r="G85">
+        <v>0.03213597003183389</v>
+      </c>
+      <c r="H85">
+        <v>0.007911773727796553</v>
+      </c>
+      <c r="I85">
+        <v>-0.09464681649507661</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01403786598001251</v>
+        <v>0.01162208392351353</v>
       </c>
       <c r="C86">
-        <v>-0.01421047766253445</v>
+        <v>-0.02975095035150467</v>
       </c>
       <c r="D86">
-        <v>-0.08442555164984736</v>
+        <v>0.1084829957008955</v>
       </c>
       <c r="E86">
-        <v>-0.05174267349921852</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04238470308238523</v>
+      </c>
+      <c r="F86">
+        <v>0.01123171660195117</v>
+      </c>
+      <c r="G86">
+        <v>-0.02063420886398393</v>
+      </c>
+      <c r="H86">
+        <v>0.003212643429554077</v>
+      </c>
+      <c r="I86">
+        <v>-0.0947408318891738</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01652949217978747</v>
+        <v>0.01021447190857027</v>
       </c>
       <c r="C87">
-        <v>-0.02909336276664259</v>
+        <v>-0.0552879046253938</v>
       </c>
       <c r="D87">
-        <v>-0.1299843330079389</v>
+        <v>0.1478817216228689</v>
       </c>
       <c r="E87">
-        <v>-0.04219867301519271</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.002892045392974064</v>
+      </c>
+      <c r="F87">
+        <v>-0.03876701202594735</v>
+      </c>
+      <c r="G87">
+        <v>0.06287084726883037</v>
+      </c>
+      <c r="H87">
+        <v>0.01739851732342344</v>
+      </c>
+      <c r="I87">
+        <v>0.03489384871954399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.06298871916884177</v>
+        <v>0.03230242583528615</v>
       </c>
       <c r="C88">
-        <v>-0.04449517545965671</v>
+        <v>-0.06947408336475991</v>
       </c>
       <c r="D88">
-        <v>-0.03701624712589878</v>
+        <v>0.007091010287868182</v>
       </c>
       <c r="E88">
-        <v>-0.03160504207514193</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01205587195855593</v>
+      </c>
+      <c r="F88">
+        <v>-0.02301404903168865</v>
+      </c>
+      <c r="G88">
+        <v>0.00747170580496611</v>
+      </c>
+      <c r="H88">
+        <v>0.04052553177810685</v>
+      </c>
+      <c r="I88">
+        <v>-0.04753753496066276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.2806803278294168</v>
+        <v>0.4088288936206531</v>
       </c>
       <c r="C89">
-        <v>0.3635311753918378</v>
+        <v>0.1767617691868272</v>
       </c>
       <c r="D89">
-        <v>-0.03194057828776323</v>
+        <v>0.02741277360775274</v>
       </c>
       <c r="E89">
-        <v>-0.0995995281698019</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02384155274482337</v>
+      </c>
+      <c r="F89">
+        <v>-0.07115343002485386</v>
+      </c>
+      <c r="G89">
+        <v>0.05108373642394087</v>
+      </c>
+      <c r="H89">
+        <v>0.1313463993366566</v>
+      </c>
+      <c r="I89">
+        <v>0.3513005815253673</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.225364937228213</v>
+        <v>0.3125529835563014</v>
       </c>
       <c r="C90">
-        <v>0.2677525986837825</v>
+        <v>0.1178393245635207</v>
       </c>
       <c r="D90">
-        <v>-0.038366754072627</v>
+        <v>0.03573040842467724</v>
       </c>
       <c r="E90">
-        <v>0.00493375590358692</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01495774025073322</v>
+      </c>
+      <c r="F90">
+        <v>0.01891119113713702</v>
+      </c>
+      <c r="G90">
+        <v>0.06421558955803128</v>
+      </c>
+      <c r="H90">
+        <v>-0.0210934303103039</v>
+      </c>
+      <c r="I90">
+        <v>-0.08151356078533366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.173645877672031</v>
+        <v>0.07622746139880093</v>
       </c>
       <c r="C91">
-        <v>-0.1655605127497378</v>
+        <v>-0.2090285530651193</v>
       </c>
       <c r="D91">
-        <v>0.08945726318516915</v>
+        <v>-0.1045401493234338</v>
       </c>
       <c r="E91">
-        <v>-0.1035193344763155</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06833811247937288</v>
+      </c>
+      <c r="F91">
+        <v>-0.0713057403462654</v>
+      </c>
+      <c r="G91">
+        <v>0.01605975152480491</v>
+      </c>
+      <c r="H91">
+        <v>0.006085354274662769</v>
+      </c>
+      <c r="I91">
+        <v>-0.1164611971889786</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2061078459068126</v>
+        <v>0.3319768092850451</v>
       </c>
       <c r="C92">
-        <v>0.2820036443095582</v>
+        <v>0.1544607079357151</v>
       </c>
       <c r="D92">
-        <v>0.04140977044423935</v>
+        <v>-0.002569034627172768</v>
       </c>
       <c r="E92">
-        <v>-0.06369003291011928</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.07745133445670231</v>
+      </c>
+      <c r="F92">
+        <v>-0.02181943039044593</v>
+      </c>
+      <c r="G92">
+        <v>0.03553421403107991</v>
+      </c>
+      <c r="H92">
+        <v>0.03356631692942472</v>
+      </c>
+      <c r="I92">
+        <v>0.1553312914717802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2504770988872061</v>
+        <v>0.3312780615057785</v>
       </c>
       <c r="C93">
-        <v>0.2795361590336149</v>
+        <v>0.1247559816836382</v>
       </c>
       <c r="D93">
-        <v>-0.02077785963770594</v>
+        <v>-0.01293717514982563</v>
       </c>
       <c r="E93">
-        <v>-0.004486982748389066</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.0262497402140503</v>
+      </c>
+      <c r="F93">
+        <v>-0.01205184863891121</v>
+      </c>
+      <c r="G93">
+        <v>-0.0127204968996144</v>
+      </c>
+      <c r="H93">
+        <v>0.008000130566683089</v>
+      </c>
+      <c r="I93">
+        <v>-0.106342717403113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3222396626496262</v>
+        <v>0.1476892243833076</v>
       </c>
       <c r="C94">
-        <v>-0.2280282532167583</v>
+        <v>-0.3485800620669652</v>
       </c>
       <c r="D94">
-        <v>0.3696966904301933</v>
+        <v>-0.34182664504473</v>
       </c>
       <c r="E94">
-        <v>0.1741315411537862</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.04894009336496437</v>
+      </c>
+      <c r="F94">
+        <v>0.1094977731567485</v>
+      </c>
+      <c r="G94">
+        <v>0.3011328281306246</v>
+      </c>
+      <c r="H94">
+        <v>-0.07806020423687277</v>
+      </c>
+      <c r="I94">
+        <v>0.4026054146603943</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.02249828413942785</v>
+        <v>0.02115057601029904</v>
       </c>
       <c r="C95">
-        <v>-0.03943957008287437</v>
+        <v>-0.06278474609066242</v>
       </c>
       <c r="D95">
-        <v>-0.08646828371161813</v>
+        <v>0.1194175955771662</v>
       </c>
       <c r="E95">
-        <v>-0.1222970673163991</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.199030307253511</v>
+      </c>
+      <c r="F95">
+        <v>0.06905456468377603</v>
+      </c>
+      <c r="G95">
+        <v>-0.1099197356030831</v>
+      </c>
+      <c r="H95">
+        <v>0.3950911115444212</v>
+      </c>
+      <c r="I95">
+        <v>0.511334015817541</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0003786689130518767</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-4.666015244038645e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0003344465223119367</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.0008932344105949317</v>
+      </c>
+      <c r="F97">
+        <v>0.001550675222670162</v>
+      </c>
+      <c r="G97">
+        <v>-0.0009644603909513361</v>
+      </c>
+      <c r="H97">
+        <v>0.0003706655964234384</v>
+      </c>
+      <c r="I97">
+        <v>7.37184268026473e-05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1547359594355296</v>
+        <v>0.1173642254485116</v>
       </c>
       <c r="C98">
-        <v>-0.05910142940633858</v>
+        <v>-0.1391467253992567</v>
       </c>
       <c r="D98">
-        <v>-0.101085147900273</v>
+        <v>0.05116033718348222</v>
       </c>
       <c r="E98">
-        <v>0.2220782911390767</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2712809814382204</v>
+      </c>
+      <c r="F98">
+        <v>0.1704611156789526</v>
+      </c>
+      <c r="G98">
+        <v>-0.2738924874980757</v>
+      </c>
+      <c r="H98">
+        <v>-0.1569323549482475</v>
+      </c>
+      <c r="I98">
+        <v>0.04391640382299431</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.003653031273469266</v>
+        <v>-0.001000569100072348</v>
       </c>
       <c r="C101">
-        <v>-0.02255757755875694</v>
+        <v>-0.02989936286337918</v>
       </c>
       <c r="D101">
-        <v>-0.1028498471099739</v>
+        <v>0.09716068432891353</v>
       </c>
       <c r="E101">
-        <v>-0.008674860199807665</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.04341865671010701</v>
+      </c>
+      <c r="F101">
+        <v>-0.02940470801497493</v>
+      </c>
+      <c r="G101">
+        <v>0.001075733956865613</v>
+      </c>
+      <c r="H101">
+        <v>0.1245858181040718</v>
+      </c>
+      <c r="I101">
+        <v>-0.01901141510677637</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1232512860749396</v>
+        <v>0.03885421611823856</v>
       </c>
       <c r="C102">
-        <v>-0.1405428756687045</v>
+        <v>-0.152594235163065</v>
       </c>
       <c r="D102">
-        <v>0.07214991561097826</v>
+        <v>-0.09186693877033501</v>
       </c>
       <c r="E102">
-        <v>0.03588877976420483</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03166418012625431</v>
+      </c>
+      <c r="F102">
+        <v>0.06664426682322648</v>
+      </c>
+      <c r="G102">
+        <v>-0.00753689603462475</v>
+      </c>
+      <c r="H102">
+        <v>0.05135386884975503</v>
+      </c>
+      <c r="I102">
+        <v>-0.01562511731176335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
